--- a/nb-cal-rig/nb_cal.xlsx
+++ b/nb-cal-rig/nb_cal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Noodlebox\nb-cal-rig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Noodlebox\nb-cal-rig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDE0E3A-B942-4C26-B343-5D55C0B70BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E15EC8-F182-4D95-8795-B6E4DC76C3BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4840E51C-A9B1-48B5-82CC-3BF0C9CD111A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4840E51C-A9B1-48B5-82CC-3BF0C9CD111A}"/>
   </bookViews>
   <sheets>
     <sheet name="C_AFTER" sheetId="6" r:id="rId1"/>
@@ -257,25 +257,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>997.88</c:v>
+                  <c:v>1006.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.06</c:v>
+                  <c:v>2002.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2998.24</c:v>
+                  <c:v>2993.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3999.51</c:v>
+                  <c:v>3995.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4997.8100000000004</c:v>
+                  <c:v>4994.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5999.1</c:v>
+                  <c:v>6004.61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7009.71</c:v>
+                  <c:v>7004.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,25 +309,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>998.77</c:v>
+                  <c:v>996.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1998.57</c:v>
+                  <c:v>1994.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2997.17</c:v>
+                  <c:v>2999.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000.4</c:v>
+                  <c:v>4006.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5001.93</c:v>
+                  <c:v>5001.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6003.02</c:v>
+                  <c:v>5998.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7008.34</c:v>
+                  <c:v>6993.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,25 +361,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1003.11</c:v>
+                  <c:v>997.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.44</c:v>
+                  <c:v>1996.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2996.96</c:v>
+                  <c:v>3000.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3997.73</c:v>
+                  <c:v>3997.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000.97</c:v>
+                  <c:v>5006.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6004.69</c:v>
+                  <c:v>5997.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7015.06</c:v>
+                  <c:v>6996.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,25 +413,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1001.99</c:v>
+                  <c:v>1000.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2001.22</c:v>
+                  <c:v>1999.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2999.65</c:v>
+                  <c:v>3000.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3996.79</c:v>
+                  <c:v>4001.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4996.04</c:v>
+                  <c:v>4994.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6001.92</c:v>
+                  <c:v>5999.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7001.64</c:v>
+                  <c:v>6996.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,13 +1542,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB72A6E-B3A1-43EF-8A52-6E54C34D6072}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1591,31 +1591,31 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>997.88</v>
+        <v>1006.37</v>
       </c>
       <c r="D2">
-        <v>998.77</v>
+        <v>996.4</v>
       </c>
       <c r="E2">
-        <v>1003.11</v>
+        <v>997.7</v>
       </c>
       <c r="F2">
-        <v>1001.99</v>
+        <v>1000.2</v>
       </c>
       <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>-3</v>
+      </c>
+      <c r="I2">
         <v>-1</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1623,31 +1623,31 @@
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>2000.06</v>
+        <v>2002.6</v>
       </c>
       <c r="D3">
-        <v>1998.57</v>
+        <v>1994.76</v>
       </c>
       <c r="E3">
-        <v>2000.44</v>
+        <v>1996.34</v>
       </c>
       <c r="F3">
-        <v>2001.22</v>
+        <v>1999.18</v>
       </c>
       <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>-4</v>
+      </c>
+      <c r="I3">
+        <v>-3</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1655,31 +1655,31 @@
         <v>3000</v>
       </c>
       <c r="C4">
-        <v>2998.24</v>
+        <v>2993.59</v>
       </c>
       <c r="D4">
-        <v>2997.17</v>
+        <v>2999.35</v>
       </c>
       <c r="E4">
-        <v>2996.96</v>
+        <v>3000.4</v>
       </c>
       <c r="F4">
-        <v>2999.65</v>
+        <v>3000.99</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="H4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1687,31 +1687,31 @@
         <v>4000</v>
       </c>
       <c r="C5">
-        <v>3999.51</v>
+        <v>3995.63</v>
       </c>
       <c r="D5">
-        <v>4000.4</v>
+        <v>4006.26</v>
       </c>
       <c r="E5">
-        <v>3997.73</v>
+        <v>3997.61</v>
       </c>
       <c r="F5">
-        <v>3996.79</v>
+        <v>4001.68</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1719,31 +1719,31 @@
         <v>5000</v>
       </c>
       <c r="C6">
-        <v>4997.8100000000004</v>
+        <v>4994.76</v>
       </c>
       <c r="D6">
-        <v>5001.93</v>
+        <v>5001.37</v>
       </c>
       <c r="E6">
-        <v>5000.97</v>
+        <v>5006.78</v>
       </c>
       <c r="F6">
-        <v>4996.04</v>
+        <v>4994.22</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1751,31 +1751,31 @@
         <v>6000</v>
       </c>
       <c r="C7">
-        <v>5999.1</v>
+        <v>6004.61</v>
       </c>
       <c r="D7">
-        <v>6003.02</v>
+        <v>5998.17</v>
       </c>
       <c r="E7">
-        <v>6004.69</v>
+        <v>5997.87</v>
       </c>
       <c r="F7">
-        <v>6001.92</v>
+        <v>5999.67</v>
       </c>
       <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1783,28 +1783,28 @@
         <v>7000</v>
       </c>
       <c r="C8">
-        <v>7009.71</v>
+        <v>7004.06</v>
       </c>
       <c r="D8">
-        <v>7008.34</v>
+        <v>6993.92</v>
       </c>
       <c r="E8">
-        <v>7015.06</v>
+        <v>6996.09</v>
       </c>
       <c r="F8">
-        <v>7001.64</v>
+        <v>6996.11</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
